--- a/source_data/simple_2.xlsx
+++ b/source_data/simple_2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/timepoints/source_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm_data/source_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F635D3-A62C-9945-8C18-90F0A51382C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C592BA55-6B31-724B-B44A-F910606AF448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43700" yWindow="500" windowWidth="33600" windowHeight="19480" activeTab="2" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="43700" yWindow="500" windowWidth="33600" windowHeight="19480" activeTab="8" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="193">
   <si>
     <t>Epoch</t>
   </si>
@@ -608,6 +608,24 @@
   </si>
   <si>
     <t>The main design for the study</t>
+  </si>
+  <si>
+    <t>procedureName</t>
+  </si>
+  <si>
+    <t>procedureDescription</t>
+  </si>
+  <si>
+    <t>Test8</t>
+  </si>
+  <si>
+    <t>Test Eight</t>
+  </si>
+  <si>
+    <t>Test9</t>
+  </si>
+  <si>
+    <t>Test Nine</t>
   </si>
 </sst>
 </file>
@@ -1507,7 +1525,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A66060-C34D-B74B-9573-D0BFE7F2808B}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:E2"/>
     </sheetView>
   </sheetViews>
@@ -2203,23 +2221,24 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E538B10-DB98-4A4F-8490-F493F5759FB8}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.33203125" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="27.33203125" customWidth="1"/>
-    <col min="4" max="4" width="24" style="8" customWidth="1"/>
-    <col min="5" max="5" width="29.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" customWidth="1"/>
+    <col min="2" max="3" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="23.83203125" customWidth="1"/>
+    <col min="5" max="5" width="27.33203125" customWidth="1"/>
+    <col min="6" max="6" width="24" style="8" customWidth="1"/>
+    <col min="7" max="7" width="29.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>83</v>
       </c>
@@ -2227,16 +2246,22 @@
         <v>150</v>
       </c>
       <c r="C1" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="E1" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="F1" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="G1" s="21" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>146</v>
       </c>
@@ -2244,10 +2269,16 @@
         <v>143</v>
       </c>
       <c r="C2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>144</v>
       </c>
@@ -2255,17 +2286,25 @@
         <v>143</v>
       </c>
       <c r="C3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E3" t="s">
         <v>142</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/source_data/simple_2.xlsx
+++ b/source_data/simple_2.xlsx
@@ -1,30 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm_data/source_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C592BA55-6B31-724B-B44A-F910606AF448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92479EE3-600D-0A47-A9B2-1081326535D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43700" yWindow="500" windowWidth="33600" windowHeight="19480" activeTab="8" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="43440" yWindow="4580" windowWidth="33600" windowHeight="19480" activeTab="3" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
     <sheet name="studyIdentifiers" sheetId="3" r:id="rId2"/>
     <sheet name="studyDesign" sheetId="4" r:id="rId3"/>
-    <sheet name="mainTimeline" sheetId="1" r:id="rId4"/>
-    <sheet name="studyDesignII" sheetId="5" r:id="rId5"/>
-    <sheet name="studyDesignPopulations" sheetId="6" r:id="rId6"/>
-    <sheet name="studyDesignOE" sheetId="7" r:id="rId7"/>
-    <sheet name="studyDesignEstimands" sheetId="8" r:id="rId8"/>
-    <sheet name="studyDesignProcedures" sheetId="10" r:id="rId9"/>
-    <sheet name="studyDesignEncounters" sheetId="11" r:id="rId10"/>
-    <sheet name="studyDesignElements" sheetId="12" r:id="rId11"/>
-    <sheet name="configuration" sheetId="9" r:id="rId12"/>
+    <sheet name="studyDesignArms" sheetId="14" r:id="rId4"/>
+    <sheet name="studyDesignEpochs" sheetId="13" r:id="rId5"/>
+    <sheet name="mainTimeline" sheetId="1" r:id="rId6"/>
+    <sheet name="studyDesignII" sheetId="5" r:id="rId7"/>
+    <sheet name="studyDesignPopulations" sheetId="6" r:id="rId8"/>
+    <sheet name="studyDesignOE" sheetId="7" r:id="rId9"/>
+    <sheet name="studyDesignEstimands" sheetId="8" r:id="rId10"/>
+    <sheet name="studyDesignProcedures" sheetId="10" r:id="rId11"/>
+    <sheet name="studyDesignEncounters" sheetId="11" r:id="rId12"/>
+    <sheet name="studyDesignElements" sheetId="12" r:id="rId13"/>
+    <sheet name="configuration" sheetId="9" r:id="rId14"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -1242,6 +1244,173 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{742C28E4-40F4-3942-8A73-FBE0EFF56968}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.83203125" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="3" max="4" width="23" customWidth="1"/>
+    <col min="5" max="5" width="28.1640625" customWidth="1"/>
+    <col min="6" max="6" width="61.83203125" customWidth="1"/>
+    <col min="7" max="8" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E538B10-DB98-4A4F-8490-F493F5759FB8}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.33203125" customWidth="1"/>
+    <col min="2" max="3" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="23.83203125" customWidth="1"/>
+    <col min="5" max="5" width="27.33203125" customWidth="1"/>
+    <col min="6" max="6" width="24" style="8" customWidth="1"/>
+    <col min="7" max="7" width="29.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="G3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBF4C881-F99F-AB40-940B-2531415A94FC}">
   <dimension ref="A1:H4"/>
   <sheetViews>
@@ -1356,7 +1525,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5970CCBC-0EF3-C846-87F8-EE9D828BA735}">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -1428,7 +1597,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6879B0C-C67A-EA45-AA03-0AE5CE49C17A}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1712,6 +1881,32 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39099726-BB03-FA43-8142-57289EF000EF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB8077BF-0E04-864A-98D2-34DC6173A358}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136502A0-3DDE-CC47-9DA7-EB2F3073B24B}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -1904,7 +2099,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C24824-A10F-9347-9089-9D0DA7411C4F}">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -1993,7 +2188,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAB67A60-2FDF-274A-9BDA-F68BFE83F7C3}">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -2083,7 +2278,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DC1BB23-B51E-2F4B-AFA7-11533540F2B5}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -2142,171 +2337,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{742C28E4-40F4-3942-8A73-FBE0EFF56968}">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="6.83203125" customWidth="1"/>
-    <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="3" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="28.1640625" customWidth="1"/>
-    <col min="6" max="6" width="61.83203125" customWidth="1"/>
-    <col min="7" max="8" width="17" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G2" t="s">
-        <v>96</v>
-      </c>
-      <c r="H2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E538B10-DB98-4A4F-8490-F493F5759FB8}">
-  <dimension ref="A1:G5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="7.33203125" customWidth="1"/>
-    <col min="2" max="3" width="17.5" customWidth="1"/>
-    <col min="4" max="4" width="23.83203125" customWidth="1"/>
-    <col min="5" max="5" width="27.33203125" customWidth="1"/>
-    <col min="6" max="6" width="24" style="8" customWidth="1"/>
-    <col min="7" max="7" width="29.6640625" customWidth="1"/>
-    <col min="8" max="8" width="14.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D3" t="s">
-        <v>192</v>
-      </c>
-      <c r="E3" t="s">
-        <v>142</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="G3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/source_data/simple_2.xlsx
+++ b/source_data/simple_2.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm_data/source_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92479EE3-600D-0A47-A9B2-1081326535D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0FA569-816D-4142-B7A5-2677ECD2155B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43440" yWindow="4580" windowWidth="33600" windowHeight="19480" activeTab="3" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="43440" yWindow="4580" windowWidth="33600" windowHeight="19480" firstSheet="1" activeTab="4" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
     <sheet name="studyIdentifiers" sheetId="3" r:id="rId2"/>
     <sheet name="studyDesign" sheetId="4" r:id="rId3"/>
-    <sheet name="studyDesignArms" sheetId="14" r:id="rId4"/>
-    <sheet name="studyDesignEpochs" sheetId="13" r:id="rId5"/>
+    <sheet name="studyDesignArms" sheetId="15" r:id="rId4"/>
+    <sheet name="studyDesignEpochs" sheetId="16" r:id="rId5"/>
     <sheet name="mainTimeline" sheetId="1" r:id="rId6"/>
     <sheet name="studyDesignII" sheetId="5" r:id="rId7"/>
     <sheet name="studyDesignPopulations" sheetId="6" r:id="rId8"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="210">
   <si>
     <t>Epoch</t>
   </si>
@@ -628,6 +628,57 @@
   </si>
   <si>
     <t>Test Nine</t>
+  </si>
+  <si>
+    <t>Data Generated Within Study</t>
+  </si>
+  <si>
+    <t>Data collected from subjects</t>
+  </si>
+  <si>
+    <t>Placebo Comparator Arm</t>
+  </si>
+  <si>
+    <t>Active Comparator Arm</t>
+  </si>
+  <si>
+    <t>Active Substance</t>
+  </si>
+  <si>
+    <t>studyArmDataOriginType</t>
+  </si>
+  <si>
+    <t>studyArmDataOriginDescription</t>
+  </si>
+  <si>
+    <t>studyArmType</t>
+  </si>
+  <si>
+    <t>studyArmDescription</t>
+  </si>
+  <si>
+    <t>studyArmName</t>
+  </si>
+  <si>
+    <t>FOLLOW-UP</t>
+  </si>
+  <si>
+    <t>Follow-up Epoch</t>
+  </si>
+  <si>
+    <t>TREATMENT</t>
+  </si>
+  <si>
+    <t>Treatment Epoch</t>
+  </si>
+  <si>
+    <t>studyEpochType</t>
+  </si>
+  <si>
+    <t>studyEpochDescription</t>
+  </si>
+  <si>
+    <t>studyEpochName</t>
   </si>
 </sst>
 </file>
@@ -1881,27 +1932,130 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39099726-BB03-FA43-8142-57289EF000EF}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C0FD8F3-958D-8E4B-8D8D-105031C4AEF6}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.83203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="24.83203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="23.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="32.1640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E4" s="14"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB8077BF-0E04-864A-98D2-34DC6173A358}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9FB95EC-CA32-A64D-9E7A-9B059E48933B}">
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
